--- a/medicine/Mort/Monument_aux_morts_de_Batna/Monument_aux_morts_de_Batna.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Batna/Monument_aux_morts_de_Batna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts de Batna est un monument érigé pour commémorer et honorer les soldats durant l'entre-deux-guerres, tuées ou disparues.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument aux morts a été réalisé par Camille Alaphilippe et par l’architecte Charles Montland en 1925, et inauguré le 11 novembre de la même année. Il se trouvait dans devant l’hôtel de ville à la croisée des avenues de France (Rte Biskra) et de la République (Rte de Constantine), avant d'être déplacé au nouveau square (jardin des allées de Ben Boulaid) sur l’ex-allée Bocca (allée Ben Boulaid)[1]. Les plaques du monument ont été changées deux fois : la première plaque est de 1914 à 1918 pour les morts de la Première Guerre mondiale, la seconde pour les morts de la Seconde Guerre mondiale de 1939 à 1945.
-Après l’indépendance, le monument a été déplacé dans le cimetière chrétien de la ville de Batna, et il a été remplacé par un monument du martyre de Mostapha Ben Boulaïd. L'épée tenue par la figure ailée est brisée[2],[3] et les plaques ont disparu[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument aux morts a été réalisé par Camille Alaphilippe et par l’architecte Charles Montland en 1925, et inauguré le 11 novembre de la même année. Il se trouvait dans devant l’hôtel de ville à la croisée des avenues de France (Rte Biskra) et de la République (Rte de Constantine), avant d'être déplacé au nouveau square (jardin des allées de Ben Boulaid) sur l’ex-allée Bocca (allée Ben Boulaid). Les plaques du monument ont été changées deux fois : la première plaque est de 1914 à 1918 pour les morts de la Première Guerre mondiale, la seconde pour les morts de la Seconde Guerre mondiale de 1939 à 1945.
+Après l’indépendance, le monument a été déplacé dans le cimetière chrétien de la ville de Batna, et il a été remplacé par un monument du martyre de Mostapha Ben Boulaïd. L'épée tenue par la figure ailée est brisée, et les plaques ont disparu.
 </t>
         </is>
       </c>
